--- a/Образец 1 Заявление за вписване на договор за залог и за удостоверение.xlsx
+++ b/Образец 1 Заявление за вписване на договор за залог и за удостоверение.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay Dimov\Documents\GitHub\TextParserDOCXEurobank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABAFE25A-BB62-4BFB-BE2A-9007333EC91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC446D5-E3C1-4743-842D-078C8BEA0DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Вписване" sheetId="1" r:id="rId1"/>
@@ -827,7 +827,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1635,16 +1635,15 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1662,15 +1661,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1678,6 +1678,31 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1694,35 +1719,10 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="41">
     <dxf>
@@ -2980,10 +2980,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A60" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -3061,33 +3061,33 @@
       <c r="AJ4" s="10"/>
     </row>
     <row r="5" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="170"/>
-      <c r="R5" s="170"/>
-      <c r="S5" s="170"/>
-      <c r="T5" s="170"/>
-      <c r="U5" s="170"/>
-      <c r="V5" s="170"/>
-      <c r="W5" s="170"/>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="170"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="178"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="178"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="178"/>
+      <c r="S5" s="178"/>
+      <c r="T5" s="178"/>
+      <c r="U5" s="178"/>
+      <c r="V5" s="178"/>
+      <c r="W5" s="178"/>
+      <c r="X5" s="178"/>
+      <c r="Y5" s="178"/>
       <c r="Z5" s="11" t="s">
         <v>6</v>
       </c>
@@ -3144,42 +3144,42 @@
       <c r="AJ6" s="15"/>
     </row>
     <row r="7" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="170"/>
-      <c r="Q7" s="170"/>
-      <c r="R7" s="170"/>
-      <c r="S7" s="170"/>
-      <c r="T7" s="170"/>
-      <c r="U7" s="170"/>
-      <c r="V7" s="170"/>
-      <c r="W7" s="170"/>
-      <c r="X7" s="170"/>
-      <c r="Y7" s="170"/>
-      <c r="Z7" s="170"/>
-      <c r="AA7" s="170"/>
-      <c r="AB7" s="170"/>
-      <c r="AC7" s="170"/>
-      <c r="AD7" s="170"/>
-      <c r="AE7" s="170"/>
-      <c r="AF7" s="170"/>
-      <c r="AG7" s="170"/>
-      <c r="AH7" s="170"/>
-      <c r="AI7" s="170"/>
-      <c r="AJ7" s="170"/>
+      <c r="A7" s="178"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="178"/>
+      <c r="L7" s="178"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="178"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="178"/>
+      <c r="Q7" s="178"/>
+      <c r="R7" s="178"/>
+      <c r="S7" s="178"/>
+      <c r="T7" s="178"/>
+      <c r="U7" s="178"/>
+      <c r="V7" s="178"/>
+      <c r="W7" s="178"/>
+      <c r="X7" s="178"/>
+      <c r="Y7" s="178"/>
+      <c r="Z7" s="178"/>
+      <c r="AA7" s="178"/>
+      <c r="AB7" s="178"/>
+      <c r="AC7" s="178"/>
+      <c r="AD7" s="178"/>
+      <c r="AE7" s="178"/>
+      <c r="AF7" s="178"/>
+      <c r="AG7" s="178"/>
+      <c r="AH7" s="178"/>
+      <c r="AI7" s="178"/>
+      <c r="AJ7" s="178"/>
     </row>
     <row r="8" spans="1:37" ht="2.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3450,31 +3450,31 @@
       <c r="AJ16" s="24"/>
     </row>
     <row r="17" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="171"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="171"/>
-      <c r="P17" s="171"/>
-      <c r="Q17" s="171"/>
-      <c r="R17" s="171"/>
-      <c r="S17" s="171"/>
-      <c r="T17" s="171"/>
-      <c r="U17" s="171"/>
-      <c r="V17" s="171"/>
-      <c r="W17" s="171"/>
-      <c r="X17" s="171"/>
-      <c r="Y17" s="171"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="179"/>
+      <c r="N17" s="179"/>
+      <c r="O17" s="179"/>
+      <c r="P17" s="179"/>
+      <c r="Q17" s="179"/>
+      <c r="R17" s="179"/>
+      <c r="S17" s="179"/>
+      <c r="T17" s="179"/>
+      <c r="U17" s="179"/>
+      <c r="V17" s="179"/>
+      <c r="W17" s="179"/>
+      <c r="X17" s="179"/>
+      <c r="Y17" s="179"/>
       <c r="Z17" s="36" t="s">
         <v>6</v>
       </c>
@@ -3532,42 +3532,42 @@
       <c r="AJ18" s="10"/>
     </row>
     <row r="19" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="172"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="172"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="172"/>
-      <c r="N19" s="172"/>
-      <c r="O19" s="172"/>
-      <c r="P19" s="172"/>
-      <c r="Q19" s="172"/>
-      <c r="R19" s="172"/>
-      <c r="S19" s="172"/>
-      <c r="T19" s="172"/>
-      <c r="U19" s="172"/>
-      <c r="V19" s="172"/>
-      <c r="W19" s="172"/>
-      <c r="X19" s="172"/>
-      <c r="Y19" s="172"/>
-      <c r="Z19" s="172"/>
-      <c r="AA19" s="172"/>
-      <c r="AB19" s="172"/>
-      <c r="AC19" s="172"/>
-      <c r="AD19" s="172"/>
-      <c r="AE19" s="172"/>
-      <c r="AF19" s="172"/>
-      <c r="AG19" s="172"/>
-      <c r="AH19" s="172"/>
-      <c r="AI19" s="172"/>
-      <c r="AJ19" s="172"/>
+      <c r="A19" s="180"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="180"/>
+      <c r="O19" s="180"/>
+      <c r="P19" s="180"/>
+      <c r="Q19" s="180"/>
+      <c r="R19" s="180"/>
+      <c r="S19" s="180"/>
+      <c r="T19" s="180"/>
+      <c r="U19" s="180"/>
+      <c r="V19" s="180"/>
+      <c r="W19" s="180"/>
+      <c r="X19" s="180"/>
+      <c r="Y19" s="180"/>
+      <c r="Z19" s="180"/>
+      <c r="AA19" s="180"/>
+      <c r="AB19" s="180"/>
+      <c r="AC19" s="180"/>
+      <c r="AD19" s="180"/>
+      <c r="AE19" s="180"/>
+      <c r="AF19" s="180"/>
+      <c r="AG19" s="180"/>
+      <c r="AH19" s="180"/>
+      <c r="AI19" s="180"/>
+      <c r="AJ19" s="180"/>
     </row>
     <row r="20" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -3732,31 +3732,31 @@
       <c r="AJ23" s="24"/>
     </row>
     <row r="24" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="171"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="171"/>
-      <c r="N24" s="171"/>
-      <c r="O24" s="171"/>
-      <c r="P24" s="171"/>
-      <c r="Q24" s="171"/>
-      <c r="R24" s="171"/>
-      <c r="S24" s="171"/>
-      <c r="T24" s="171"/>
-      <c r="U24" s="171"/>
-      <c r="V24" s="171"/>
-      <c r="W24" s="171"/>
-      <c r="X24" s="171"/>
-      <c r="Y24" s="171"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="179"/>
+      <c r="M24" s="179"/>
+      <c r="N24" s="179"/>
+      <c r="O24" s="179"/>
+      <c r="P24" s="179"/>
+      <c r="Q24" s="179"/>
+      <c r="R24" s="179"/>
+      <c r="S24" s="179"/>
+      <c r="T24" s="179"/>
+      <c r="U24" s="179"/>
+      <c r="V24" s="179"/>
+      <c r="W24" s="179"/>
+      <c r="X24" s="179"/>
+      <c r="Y24" s="179"/>
       <c r="Z24" s="11" t="s">
         <v>6</v>
       </c>
@@ -3815,42 +3815,42 @@
       <c r="AJ25" s="10"/>
     </row>
     <row r="26" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="170"/>
-      <c r="B26" s="170"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="170"/>
-      <c r="R26" s="170"/>
-      <c r="S26" s="170"/>
-      <c r="T26" s="170"/>
-      <c r="U26" s="170"/>
-      <c r="V26" s="170"/>
-      <c r="W26" s="170"/>
-      <c r="X26" s="170"/>
-      <c r="Y26" s="170"/>
-      <c r="Z26" s="170"/>
-      <c r="AA26" s="170"/>
-      <c r="AB26" s="170"/>
-      <c r="AC26" s="170"/>
-      <c r="AD26" s="170"/>
-      <c r="AE26" s="170"/>
-      <c r="AF26" s="170"/>
-      <c r="AG26" s="170"/>
-      <c r="AH26" s="170"/>
-      <c r="AI26" s="170"/>
-      <c r="AJ26" s="170"/>
+      <c r="A26" s="178"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="178"/>
+      <c r="M26" s="178"/>
+      <c r="N26" s="178"/>
+      <c r="O26" s="178"/>
+      <c r="P26" s="178"/>
+      <c r="Q26" s="178"/>
+      <c r="R26" s="178"/>
+      <c r="S26" s="178"/>
+      <c r="T26" s="178"/>
+      <c r="U26" s="178"/>
+      <c r="V26" s="178"/>
+      <c r="W26" s="178"/>
+      <c r="X26" s="178"/>
+      <c r="Y26" s="178"/>
+      <c r="Z26" s="178"/>
+      <c r="AA26" s="178"/>
+      <c r="AB26" s="178"/>
+      <c r="AC26" s="178"/>
+      <c r="AD26" s="178"/>
+      <c r="AE26" s="178"/>
+      <c r="AF26" s="178"/>
+      <c r="AG26" s="178"/>
+      <c r="AH26" s="178"/>
+      <c r="AI26" s="178"/>
+      <c r="AJ26" s="178"/>
     </row>
     <row r="27" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
@@ -4937,19 +4937,19 @@
         <v>31</v>
       </c>
       <c r="C53" s="9"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="178"/>
-      <c r="K53" s="178"/>
-      <c r="L53" s="178"/>
-      <c r="M53" s="178"/>
-      <c r="N53" s="178"/>
-      <c r="O53" s="178"/>
-      <c r="P53" s="178"/>
+      <c r="D53" s="170"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="170"/>
+      <c r="K53" s="170"/>
+      <c r="L53" s="170"/>
+      <c r="M53" s="170"/>
+      <c r="N53" s="170"/>
+      <c r="O53" s="170"/>
+      <c r="P53" s="170"/>
       <c r="Q53" s="32">
         <v>19</v>
       </c>
@@ -4979,19 +4979,19 @@
       <c r="A54" s="29"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
-      <c r="D54" s="178"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="178"/>
-      <c r="K54" s="178"/>
-      <c r="L54" s="178"/>
-      <c r="M54" s="178"/>
-      <c r="N54" s="178"/>
-      <c r="O54" s="178"/>
-      <c r="P54" s="178"/>
+      <c r="D54" s="170"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="170"/>
+      <c r="K54" s="170"/>
+      <c r="L54" s="170"/>
+      <c r="M54" s="170"/>
+      <c r="N54" s="170"/>
+      <c r="O54" s="170"/>
+      <c r="P54" s="170"/>
       <c r="Q54" s="29" t="s">
         <v>14</v>
       </c>
@@ -5175,37 +5175,37 @@
       <c r="E59" s="19"/>
       <c r="F59" s="24"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="179" t="s">
+      <c r="H59" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="I59" s="179"/>
-      <c r="J59" s="179"/>
-      <c r="K59" s="179"/>
-      <c r="L59" s="179"/>
-      <c r="M59" s="179"/>
-      <c r="N59" s="179"/>
-      <c r="O59" s="179"/>
-      <c r="P59" s="179"/>
-      <c r="Q59" s="179"/>
-      <c r="R59" s="179"/>
-      <c r="S59" s="179"/>
-      <c r="T59" s="179"/>
-      <c r="U59" s="179"/>
-      <c r="V59" s="179"/>
-      <c r="W59" s="179"/>
-      <c r="X59" s="179"/>
-      <c r="Y59" s="179"/>
-      <c r="Z59" s="179"/>
-      <c r="AA59" s="179"/>
-      <c r="AB59" s="179"/>
-      <c r="AC59" s="179"/>
-      <c r="AD59" s="179"/>
-      <c r="AE59" s="179"/>
-      <c r="AF59" s="179"/>
-      <c r="AG59" s="179"/>
-      <c r="AH59" s="179"/>
-      <c r="AI59" s="179"/>
-      <c r="AJ59" s="179"/>
+      <c r="I59" s="171"/>
+      <c r="J59" s="171"/>
+      <c r="K59" s="171"/>
+      <c r="L59" s="171"/>
+      <c r="M59" s="171"/>
+      <c r="N59" s="171"/>
+      <c r="O59" s="171"/>
+      <c r="P59" s="171"/>
+      <c r="Q59" s="171"/>
+      <c r="R59" s="171"/>
+      <c r="S59" s="171"/>
+      <c r="T59" s="171"/>
+      <c r="U59" s="171"/>
+      <c r="V59" s="171"/>
+      <c r="W59" s="171"/>
+      <c r="X59" s="171"/>
+      <c r="Y59" s="171"/>
+      <c r="Z59" s="171"/>
+      <c r="AA59" s="171"/>
+      <c r="AB59" s="171"/>
+      <c r="AC59" s="171"/>
+      <c r="AD59" s="171"/>
+      <c r="AE59" s="171"/>
+      <c r="AF59" s="171"/>
+      <c r="AG59" s="171"/>
+      <c r="AH59" s="171"/>
+      <c r="AI59" s="171"/>
+      <c r="AJ59" s="171"/>
     </row>
     <row r="60" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
@@ -5217,35 +5217,35 @@
       <c r="E60" s="28"/>
       <c r="F60" s="40"/>
       <c r="G60" s="28"/>
-      <c r="H60" s="179"/>
-      <c r="I60" s="179"/>
-      <c r="J60" s="179"/>
-      <c r="K60" s="179"/>
-      <c r="L60" s="179"/>
-      <c r="M60" s="179"/>
-      <c r="N60" s="179"/>
-      <c r="O60" s="179"/>
-      <c r="P60" s="179"/>
-      <c r="Q60" s="179"/>
-      <c r="R60" s="179"/>
-      <c r="S60" s="179"/>
-      <c r="T60" s="179"/>
-      <c r="U60" s="179"/>
-      <c r="V60" s="179"/>
-      <c r="W60" s="179"/>
-      <c r="X60" s="179"/>
-      <c r="Y60" s="179"/>
-      <c r="Z60" s="179"/>
-      <c r="AA60" s="179"/>
-      <c r="AB60" s="179"/>
-      <c r="AC60" s="179"/>
-      <c r="AD60" s="179"/>
-      <c r="AE60" s="179"/>
-      <c r="AF60" s="179"/>
-      <c r="AG60" s="179"/>
-      <c r="AH60" s="179"/>
-      <c r="AI60" s="179"/>
-      <c r="AJ60" s="179"/>
+      <c r="H60" s="171"/>
+      <c r="I60" s="171"/>
+      <c r="J60" s="171"/>
+      <c r="K60" s="171"/>
+      <c r="L60" s="171"/>
+      <c r="M60" s="171"/>
+      <c r="N60" s="171"/>
+      <c r="O60" s="171"/>
+      <c r="P60" s="171"/>
+      <c r="Q60" s="171"/>
+      <c r="R60" s="171"/>
+      <c r="S60" s="171"/>
+      <c r="T60" s="171"/>
+      <c r="U60" s="171"/>
+      <c r="V60" s="171"/>
+      <c r="W60" s="171"/>
+      <c r="X60" s="171"/>
+      <c r="Y60" s="171"/>
+      <c r="Z60" s="171"/>
+      <c r="AA60" s="171"/>
+      <c r="AB60" s="171"/>
+      <c r="AC60" s="171"/>
+      <c r="AD60" s="171"/>
+      <c r="AE60" s="171"/>
+      <c r="AF60" s="171"/>
+      <c r="AG60" s="171"/>
+      <c r="AH60" s="171"/>
+      <c r="AI60" s="171"/>
+      <c r="AJ60" s="171"/>
     </row>
     <row r="61" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
@@ -5333,24 +5333,24 @@
       <c r="AJ63" s="10"/>
     </row>
     <row r="64" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="180"/>
-      <c r="B64" s="180"/>
-      <c r="C64" s="180"/>
-      <c r="D64" s="180"/>
-      <c r="E64" s="180"/>
-      <c r="F64" s="180"/>
-      <c r="G64" s="180"/>
-      <c r="H64" s="180"/>
-      <c r="I64" s="180"/>
-      <c r="J64" s="180"/>
-      <c r="K64" s="180"/>
-      <c r="L64" s="180"/>
-      <c r="M64" s="180"/>
-      <c r="N64" s="180"/>
-      <c r="O64" s="180"/>
-      <c r="P64" s="180"/>
-      <c r="Q64" s="180"/>
-      <c r="R64" s="180"/>
+      <c r="A64" s="172"/>
+      <c r="B64" s="172"/>
+      <c r="C64" s="172"/>
+      <c r="D64" s="172"/>
+      <c r="E64" s="172"/>
+      <c r="F64" s="172"/>
+      <c r="G64" s="172"/>
+      <c r="H64" s="172"/>
+      <c r="I64" s="172"/>
+      <c r="J64" s="172"/>
+      <c r="K64" s="172"/>
+      <c r="L64" s="172"/>
+      <c r="M64" s="172"/>
+      <c r="N64" s="172"/>
+      <c r="O64" s="172"/>
+      <c r="P64" s="172"/>
+      <c r="Q64" s="172"/>
+      <c r="R64" s="172"/>
       <c r="S64" s="46"/>
       <c r="T64" s="28"/>
       <c r="U64" s="28"/>
@@ -5542,24 +5542,24 @@
       <c r="AJ69" s="51"/>
     </row>
     <row r="70" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="180"/>
-      <c r="B70" s="180"/>
-      <c r="C70" s="180"/>
-      <c r="D70" s="180"/>
-      <c r="E70" s="180"/>
-      <c r="F70" s="180"/>
-      <c r="G70" s="180"/>
-      <c r="H70" s="180"/>
-      <c r="I70" s="180"/>
-      <c r="J70" s="180"/>
-      <c r="K70" s="180"/>
-      <c r="L70" s="180"/>
-      <c r="M70" s="180"/>
-      <c r="N70" s="180"/>
-      <c r="O70" s="180"/>
-      <c r="P70" s="180"/>
-      <c r="Q70" s="180"/>
-      <c r="R70" s="180"/>
+      <c r="A70" s="172"/>
+      <c r="B70" s="172"/>
+      <c r="C70" s="172"/>
+      <c r="D70" s="172"/>
+      <c r="E70" s="172"/>
+      <c r="F70" s="172"/>
+      <c r="G70" s="172"/>
+      <c r="H70" s="172"/>
+      <c r="I70" s="172"/>
+      <c r="J70" s="172"/>
+      <c r="K70" s="172"/>
+      <c r="L70" s="172"/>
+      <c r="M70" s="172"/>
+      <c r="N70" s="172"/>
+      <c r="O70" s="172"/>
+      <c r="P70" s="172"/>
+      <c r="Q70" s="172"/>
+      <c r="R70" s="172"/>
       <c r="S70" s="28"/>
       <c r="T70" s="28"/>
       <c r="U70" s="49"/>
@@ -6778,6 +6778,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="A26:AJ26"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="A7:AJ7"/>
+    <mergeCell ref="A17:Y17"/>
+    <mergeCell ref="A19:AJ19"/>
+    <mergeCell ref="A24:Y24"/>
     <mergeCell ref="D53:P54"/>
     <mergeCell ref="H59:AJ60"/>
     <mergeCell ref="A64:R64"/>
@@ -6788,12 +6794,6 @@
     <mergeCell ref="A39:AB39"/>
     <mergeCell ref="AC39:AJ39"/>
     <mergeCell ref="A47:AJ52"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="A7:AJ7"/>
-    <mergeCell ref="A17:Y17"/>
-    <mergeCell ref="A19:AJ19"/>
-    <mergeCell ref="A24:Y24"/>
-    <mergeCell ref="A26:AJ26"/>
   </mergeCells>
   <conditionalFormatting sqref="Z5:AJ5">
     <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
@@ -6964,86 +6964,89 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" 1) Юробанк България АД = заявител, когато служител на банката вписва и е упълномощен от залогодателя и 2) Залогодател = заявител, когато сам депозира заявлението" sqref="A5:Y5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" 1) Юробанк България АД = заявител, когато служител на банката вписва и е упълномощен от залогодателя и 2) Залогодател = заявител, когато сам депозира заявлението" sqref="A5:Y5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ЕИК или ЕГН за заявителя" sqref="AA5:AJ5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ЕИК или ЕГН за заявителя" sqref="AA5:AJ5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Адрес на заявителя (седалище)" sqref="A7:AJ7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Адрес на заявителя (седалище)" sqref="A7:AJ7" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Име на собственика на заложеното имущество (Юридическо лице или Физическо лице)" sqref="A17:Y17">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Име на собственика на заложеното имущество (Юридическо лице или Физическо лице)" sqref="A17:Y17" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ЕИК или ЕГН на залогодателя" sqref="AA17:AJ17">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ЕИК или ЕГН на залогодателя" sqref="AA17:AJ17" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Адрес на  залогодател (седалище)" sqref="A19:AJ19">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Адрес на  залогодател (седалище)" sqref="A19:AJ19" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Съгласно продължение към Група №5 поле №11. В допълнителната страница се изписва пълното наименование на ДБК и в съответните случай Общите условия за кредитиране на МСП клиенти" sqref="A37:P37">
+    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Съгласно продължение към Група №5 поле №11. В допълнителната страница се изписва пълното наименование на ДБК и в съответните случай Общите условия за кредитиране на МСП клиенти" sqref="A37:P37" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Съгласно продължение към Група №5 поле №11 . В допълнителната страница се записва размерът на отпуснатия кредит" sqref="A39:AB39">
+    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Съгласно продължение към Група №5 поле №11 . В допълнителната страница се записва размерът на отпуснатия кредит" sqref="A39:AB39" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Съгласно продължение към група №5, поле №14:Попълва се размерът на наказателната лихва. Задължително се описват 2 -та пункта лихва върху непадежиралата част от главницата по кредита, за времето на забавата до окончателното плащане на забавените суми" sqref="AD38 AJ38">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Съгласно продължение към група №5, поле №14:Попълва се размерът на наказателната лихва. Задължително се описват 2 -та пункта лихва върху непадежиралата част от главницата по кредита, за времето на забавата до окончателното плащане на забавените суми" sqref="AD38 AJ38" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="копира се текста от Договора за залог" sqref="A47:AJ52">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="копира се текста от Договора за залог" sqref="A47:AJ52" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="При залог на вземания по сметки и/или субсидия - се записва &quot;НЕ&quot;_x000a__x000a_При залог на ДМА (машини, съоръжения, тр. средства,...) - по фактурна стойност без ДДС_x000a__x000a_При залог на комфорт фактор - размерът на кредита" sqref="D53:P54">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="При залог на вземания по сметки и/или субсидия - се записва &quot;НЕ&quot;_x000a__x000a_При залог на ДМА (машини, съоръжения, тр. средства,...) - по фактурна стойност без ДДС_x000a__x000a_При залог на комфорт фактор - размерът на кредита" sqref="D53:P54" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ако денят на изтичане на срока не може да бъде определен, начинът на определяне се посочва в поле № 21 като условие" sqref="H59:AJ60">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ако денят на изтичане на срока не може да бъде определен, начинът на определяне се посочва в поле № 21 като условие" sqref="H59:AJ60" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Кредитополучател (Юридическо лице или Физическо лице)" sqref="A24:Y24">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Кредитополучател (Юридическо лице или Физическо лице)" sqref="A24:Y24" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ЕИК или БУЛСТАТ за Кредитополучателя" sqref="AA24:AJ24">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ЕИК или БУЛСТАТ за Кредитополучателя" sqref="AA24:AJ24" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Адрес на Кредитополучателя (седалище)" sqref="A26:AJ26">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Адрес на Кредитополучателя (седалище)" sqref="A26:AJ26" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Не се попълва при първоначално вписване" sqref="A12 L12 Y12 AJ12 K77 S83 AD89">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Не се попълва при първоначално вписване" sqref="A12 L12 Y12 AJ12 K77 S83 AD89" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="посочва се денят, в който изтича срокът на заложното право, ако е по-кратък от 5 години,   ако денят на изтичане на срока не може да бъде определен, Не се попълва" sqref="AJ33 AJ43 AJ54 A60:F60 AJ64 R66 AJ66 AJ70 X77 Z77 AB77 AD77 AJ77 B81 D81 F81 AD81 AJ81 G83 X83 Z83 AB83 AD83 AJ83 B87 D87 F87 AD87 AJ87 AJ89 AJ109">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="посочва се денят, в който изтича срокът на заложното право, ако е по-кратък от 5 години,   ако денят на изтичане на срока не може да бъде определен, Не се попълва" sqref="AJ33 AJ43 AJ54 A60:F60 AJ64 R66 AJ66 AJ70 X77 Z77 AB77 AD77 AJ77 B81 D81 F81 AD81 AJ81 G83 X83 Z83 AB83 AD83 AJ83 B87 D87 F87 AD87 AJ87 AJ89 AJ109" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.47222222222222221" right="0.17986111111111111" top="0.39374999999999999" bottom="0.51180555555555551" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" scale="97" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;1#&amp;"Calibri,Regular"&amp;10 000000 Internal Use</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="73" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
@@ -7724,7 +7727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BT195"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" workbookViewId="0">
@@ -7782,18 +7785,18 @@
       <c r="AA1" s="88"/>
       <c r="AB1" s="88"/>
       <c r="AC1" s="88"/>
-      <c r="AD1" s="183" t="s">
+      <c r="AD1" s="194" t="s">
         <v>89</v>
       </c>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="183"/>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="183"/>
-      <c r="AK1" s="183"/>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
+      <c r="AE1" s="194"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="194"/>
+      <c r="AH1" s="194"/>
+      <c r="AI1" s="194"/>
+      <c r="AJ1" s="194"/>
+      <c r="AK1" s="194"/>
+      <c r="AL1" s="194"/>
+      <c r="AM1" s="194"/>
       <c r="AN1" s="88"/>
       <c r="AO1" s="88"/>
       <c r="AP1" s="88"/>
@@ -7802,15 +7805,15 @@
     </row>
     <row r="2" spans="1:44" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
       <c r="K2" s="88"/>
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
@@ -7830,16 +7833,16 @@
       <c r="AA2" s="88"/>
       <c r="AB2" s="88"/>
       <c r="AC2" s="88"/>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="185"/>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="185"/>
-      <c r="AJ2" s="185"/>
-      <c r="AK2" s="185"/>
-      <c r="AL2" s="185"/>
-      <c r="AM2" s="185"/>
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="196"/>
+      <c r="AH2" s="196"/>
+      <c r="AI2" s="196"/>
+      <c r="AJ2" s="196"/>
+      <c r="AK2" s="196"/>
+      <c r="AL2" s="196"/>
+      <c r="AM2" s="196"/>
       <c r="AN2" s="88"/>
       <c r="AO2" s="88"/>
       <c r="AP2" s="88"/>
@@ -7894,45 +7897,45 @@
     </row>
     <row r="4" spans="1:44" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="88"/>
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="197" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="186"/>
-      <c r="P4" s="186"/>
-      <c r="Q4" s="186"/>
-      <c r="R4" s="186"/>
-      <c r="S4" s="186"/>
-      <c r="T4" s="186"/>
-      <c r="U4" s="186"/>
-      <c r="V4" s="186"/>
-      <c r="W4" s="186"/>
-      <c r="X4" s="186"/>
-      <c r="Y4" s="186"/>
-      <c r="Z4" s="186"/>
-      <c r="AA4" s="186"/>
-      <c r="AB4" s="186"/>
-      <c r="AC4" s="186"/>
-      <c r="AD4" s="186"/>
-      <c r="AE4" s="186"/>
-      <c r="AF4" s="186"/>
-      <c r="AG4" s="186"/>
-      <c r="AH4" s="186"/>
-      <c r="AI4" s="186"/>
-      <c r="AJ4" s="186"/>
-      <c r="AK4" s="186"/>
-      <c r="AL4" s="186"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="197"/>
+      <c r="R4" s="197"/>
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="197"/>
+      <c r="Y4" s="197"/>
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="197"/>
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="197"/>
+      <c r="AE4" s="197"/>
+      <c r="AF4" s="197"/>
+      <c r="AG4" s="197"/>
+      <c r="AH4" s="197"/>
+      <c r="AI4" s="197"/>
+      <c r="AJ4" s="197"/>
+      <c r="AK4" s="197"/>
+      <c r="AL4" s="197"/>
       <c r="AM4" s="88"/>
       <c r="AN4" s="88"/>
       <c r="AO4" s="88"/>
@@ -7942,45 +7945,45 @@
     </row>
     <row r="5" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="88"/>
-      <c r="B5" s="187" t="s">
+      <c r="B5" s="198" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="187"/>
-      <c r="P5" s="187"/>
-      <c r="Q5" s="187"/>
-      <c r="R5" s="187"/>
-      <c r="S5" s="187"/>
-      <c r="T5" s="187"/>
-      <c r="U5" s="187"/>
-      <c r="V5" s="187"/>
-      <c r="W5" s="187"/>
-      <c r="X5" s="187"/>
-      <c r="Y5" s="187"/>
-      <c r="Z5" s="187"/>
-      <c r="AA5" s="187"/>
-      <c r="AB5" s="187"/>
-      <c r="AC5" s="187"/>
-      <c r="AD5" s="187"/>
-      <c r="AE5" s="187"/>
-      <c r="AF5" s="187"/>
-      <c r="AG5" s="187"/>
-      <c r="AH5" s="187"/>
-      <c r="AI5" s="187"/>
-      <c r="AJ5" s="187"/>
-      <c r="AK5" s="187"/>
-      <c r="AL5" s="187"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="198"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="198"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="198"/>
+      <c r="Q5" s="198"/>
+      <c r="R5" s="198"/>
+      <c r="S5" s="198"/>
+      <c r="T5" s="198"/>
+      <c r="U5" s="198"/>
+      <c r="V5" s="198"/>
+      <c r="W5" s="198"/>
+      <c r="X5" s="198"/>
+      <c r="Y5" s="198"/>
+      <c r="Z5" s="198"/>
+      <c r="AA5" s="198"/>
+      <c r="AB5" s="198"/>
+      <c r="AC5" s="198"/>
+      <c r="AD5" s="198"/>
+      <c r="AE5" s="198"/>
+      <c r="AF5" s="198"/>
+      <c r="AG5" s="198"/>
+      <c r="AH5" s="198"/>
+      <c r="AI5" s="198"/>
+      <c r="AJ5" s="198"/>
+      <c r="AK5" s="198"/>
+      <c r="AL5" s="198"/>
       <c r="AM5" s="88"/>
       <c r="AN5" s="88"/>
       <c r="AO5" s="88"/>
@@ -8086,35 +8089,35 @@
     </row>
     <row r="8" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88"/>
-      <c r="B8" s="188" t="str">
+      <c r="B8" s="186" t="str">
         <f>+Вписване!A5</f>
         <v>Tyrsim naimenovanieto!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</v>
       </c>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="188"/>
-      <c r="P8" s="188"/>
-      <c r="Q8" s="188"/>
-      <c r="R8" s="188"/>
-      <c r="S8" s="188"/>
-      <c r="T8" s="188"/>
-      <c r="U8" s="188"/>
-      <c r="V8" s="188"/>
-      <c r="W8" s="188"/>
-      <c r="X8" s="188"/>
-      <c r="Y8" s="188"/>
-      <c r="Z8" s="188"/>
-      <c r="AA8" s="188"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="186"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="186"/>
+      <c r="R8" s="186"/>
+      <c r="S8" s="186"/>
+      <c r="T8" s="186"/>
+      <c r="U8" s="186"/>
+      <c r="V8" s="186"/>
+      <c r="W8" s="186"/>
+      <c r="X8" s="186"/>
+      <c r="Y8" s="186"/>
+      <c r="Z8" s="186"/>
+      <c r="AA8" s="186"/>
       <c r="AB8" s="99"/>
       <c r="AC8" s="100" t="str">
         <f>+Вписване!Z5</f>
@@ -8186,46 +8189,46 @@
     </row>
     <row r="10" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="88"/>
-      <c r="B10" s="188">
+      <c r="B10" s="186">
         <f>+Вписване!A64</f>
         <v>0</v>
       </c>
-      <c r="C10" s="188"/>
-      <c r="D10" s="188"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="188"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="188"/>
-      <c r="P10" s="188"/>
-      <c r="Q10" s="188"/>
-      <c r="R10" s="188"/>
-      <c r="S10" s="188"/>
-      <c r="T10" s="188"/>
-      <c r="U10" s="188"/>
-      <c r="V10" s="188"/>
-      <c r="W10" s="188"/>
-      <c r="X10" s="188"/>
-      <c r="Y10" s="188"/>
-      <c r="Z10" s="188"/>
-      <c r="AA10" s="188"/>
-      <c r="AB10" s="188"/>
-      <c r="AC10" s="188"/>
-      <c r="AD10" s="188"/>
-      <c r="AE10" s="188"/>
-      <c r="AF10" s="188"/>
-      <c r="AG10" s="188"/>
-      <c r="AH10" s="188"/>
-      <c r="AI10" s="188"/>
-      <c r="AJ10" s="188"/>
-      <c r="AK10" s="188"/>
-      <c r="AL10" s="188"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="186"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="186"/>
+      <c r="V10" s="186"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="186"/>
+      <c r="Y10" s="186"/>
+      <c r="Z10" s="186"/>
+      <c r="AA10" s="186"/>
+      <c r="AB10" s="186"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="186"/>
+      <c r="AF10" s="186"/>
+      <c r="AG10" s="186"/>
+      <c r="AH10" s="186"/>
+      <c r="AI10" s="186"/>
+      <c r="AJ10" s="186"/>
+      <c r="AK10" s="186"/>
+      <c r="AL10" s="186"/>
       <c r="AM10" s="103"/>
       <c r="AN10" s="88"/>
       <c r="AO10" s="88"/>
@@ -8285,47 +8288,47 @@
     </row>
     <row r="12" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="88"/>
-      <c r="B12" s="189">
+      <c r="B12" s="185">
         <f>+Вписване!A7</f>
         <v>0</v>
       </c>
-      <c r="C12" s="189"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="189"/>
-      <c r="O12" s="189"/>
-      <c r="P12" s="189"/>
-      <c r="Q12" s="189"/>
-      <c r="R12" s="189"/>
-      <c r="S12" s="189"/>
-      <c r="T12" s="189"/>
-      <c r="U12" s="189"/>
-      <c r="V12" s="189"/>
-      <c r="W12" s="189"/>
-      <c r="X12" s="189"/>
-      <c r="Y12" s="189"/>
-      <c r="Z12" s="189"/>
-      <c r="AA12" s="189"/>
-      <c r="AB12" s="190"/>
-      <c r="AC12" s="190"/>
-      <c r="AD12" s="190"/>
-      <c r="AE12" s="190"/>
-      <c r="AF12" s="190"/>
-      <c r="AG12" s="190"/>
-      <c r="AH12" s="190"/>
-      <c r="AI12" s="190"/>
-      <c r="AJ12" s="190"/>
-      <c r="AK12" s="190"/>
-      <c r="AL12" s="190"/>
-      <c r="AM12" s="190"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="185"/>
+      <c r="N12" s="185"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="185"/>
+      <c r="S12" s="185"/>
+      <c r="T12" s="185"/>
+      <c r="U12" s="185"/>
+      <c r="V12" s="185"/>
+      <c r="W12" s="185"/>
+      <c r="X12" s="185"/>
+      <c r="Y12" s="185"/>
+      <c r="Z12" s="185"/>
+      <c r="AA12" s="185"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
+      <c r="AF12" s="192"/>
+      <c r="AG12" s="192"/>
+      <c r="AH12" s="192"/>
+      <c r="AI12" s="192"/>
+      <c r="AJ12" s="192"/>
+      <c r="AK12" s="192"/>
+      <c r="AL12" s="192"/>
+      <c r="AM12" s="192"/>
       <c r="AN12" s="88"/>
       <c r="AO12" s="88"/>
       <c r="AP12" s="88"/>
@@ -8380,45 +8383,45 @@
     </row>
     <row r="14" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="88"/>
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="193" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="191"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="191"/>
-      <c r="R14" s="191"/>
-      <c r="S14" s="191"/>
-      <c r="T14" s="191"/>
-      <c r="U14" s="191"/>
-      <c r="V14" s="191"/>
-      <c r="W14" s="191"/>
-      <c r="X14" s="191"/>
-      <c r="Y14" s="191"/>
-      <c r="Z14" s="191"/>
-      <c r="AA14" s="191"/>
-      <c r="AB14" s="191"/>
-      <c r="AC14" s="191"/>
-      <c r="AD14" s="191"/>
-      <c r="AE14" s="191"/>
-      <c r="AF14" s="191"/>
-      <c r="AG14" s="191"/>
-      <c r="AH14" s="191"/>
-      <c r="AI14" s="191"/>
-      <c r="AJ14" s="191"/>
-      <c r="AK14" s="191"/>
-      <c r="AL14" s="191"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="193"/>
+      <c r="M14" s="193"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="193"/>
+      <c r="Q14" s="193"/>
+      <c r="R14" s="193"/>
+      <c r="S14" s="193"/>
+      <c r="T14" s="193"/>
+      <c r="U14" s="193"/>
+      <c r="V14" s="193"/>
+      <c r="W14" s="193"/>
+      <c r="X14" s="193"/>
+      <c r="Y14" s="193"/>
+      <c r="Z14" s="193"/>
+      <c r="AA14" s="193"/>
+      <c r="AB14" s="193"/>
+      <c r="AC14" s="193"/>
+      <c r="AD14" s="193"/>
+      <c r="AE14" s="193"/>
+      <c r="AF14" s="193"/>
+      <c r="AG14" s="193"/>
+      <c r="AH14" s="193"/>
+      <c r="AI14" s="193"/>
+      <c r="AJ14" s="193"/>
+      <c r="AK14" s="193"/>
+      <c r="AL14" s="193"/>
       <c r="AM14" s="88"/>
       <c r="AN14" s="88"/>
       <c r="AO14" s="88"/>
@@ -8667,35 +8670,35 @@
     </row>
     <row r="20" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="88"/>
-      <c r="B20" s="188" t="str">
+      <c r="B20" s="186" t="str">
         <f>+B8</f>
         <v>Tyrsim naimenovanieto!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</v>
       </c>
-      <c r="C20" s="188"/>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="188"/>
-      <c r="K20" s="188"/>
-      <c r="L20" s="188"/>
-      <c r="M20" s="188"/>
-      <c r="N20" s="188"/>
-      <c r="O20" s="188"/>
-      <c r="P20" s="188"/>
-      <c r="Q20" s="188"/>
-      <c r="R20" s="188"/>
-      <c r="S20" s="188"/>
-      <c r="T20" s="188"/>
-      <c r="U20" s="188"/>
-      <c r="V20" s="188"/>
-      <c r="W20" s="188"/>
-      <c r="X20" s="188"/>
-      <c r="Y20" s="188"/>
-      <c r="Z20" s="188"/>
-      <c r="AA20" s="188"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="186"/>
+      <c r="L20" s="186"/>
+      <c r="M20" s="186"/>
+      <c r="N20" s="186"/>
+      <c r="O20" s="186"/>
+      <c r="P20" s="186"/>
+      <c r="Q20" s="186"/>
+      <c r="R20" s="186"/>
+      <c r="S20" s="186"/>
+      <c r="T20" s="186"/>
+      <c r="U20" s="186"/>
+      <c r="V20" s="186"/>
+      <c r="W20" s="186"/>
+      <c r="X20" s="186"/>
+      <c r="Y20" s="186"/>
+      <c r="Z20" s="186"/>
+      <c r="AA20" s="186"/>
       <c r="AB20" s="99"/>
       <c r="AC20" s="113" t="s">
         <v>6</v>
@@ -8796,46 +8799,46 @@
     </row>
     <row r="22" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="88"/>
-      <c r="B22" s="188">
+      <c r="B22" s="186">
         <f>+B12</f>
         <v>0</v>
       </c>
-      <c r="C22" s="188"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="188"/>
-      <c r="K22" s="188"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="188"/>
-      <c r="N22" s="188"/>
-      <c r="O22" s="188"/>
-      <c r="P22" s="188"/>
-      <c r="Q22" s="188"/>
-      <c r="R22" s="188"/>
-      <c r="S22" s="188"/>
-      <c r="T22" s="188"/>
-      <c r="U22" s="188"/>
-      <c r="V22" s="188"/>
-      <c r="W22" s="188"/>
-      <c r="X22" s="188"/>
-      <c r="Y22" s="188"/>
-      <c r="Z22" s="188"/>
-      <c r="AA22" s="188"/>
-      <c r="AB22" s="188"/>
-      <c r="AC22" s="188"/>
-      <c r="AD22" s="188"/>
-      <c r="AE22" s="188"/>
-      <c r="AF22" s="188"/>
-      <c r="AG22" s="188"/>
-      <c r="AH22" s="188"/>
-      <c r="AI22" s="188"/>
-      <c r="AJ22" s="188"/>
-      <c r="AK22" s="188"/>
-      <c r="AL22" s="188"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="186"/>
+      <c r="L22" s="186"/>
+      <c r="M22" s="186"/>
+      <c r="N22" s="186"/>
+      <c r="O22" s="186"/>
+      <c r="P22" s="186"/>
+      <c r="Q22" s="186"/>
+      <c r="R22" s="186"/>
+      <c r="S22" s="186"/>
+      <c r="T22" s="186"/>
+      <c r="U22" s="186"/>
+      <c r="V22" s="186"/>
+      <c r="W22" s="186"/>
+      <c r="X22" s="186"/>
+      <c r="Y22" s="186"/>
+      <c r="Z22" s="186"/>
+      <c r="AA22" s="186"/>
+      <c r="AB22" s="186"/>
+      <c r="AC22" s="186"/>
+      <c r="AD22" s="186"/>
+      <c r="AE22" s="186"/>
+      <c r="AF22" s="186"/>
+      <c r="AG22" s="186"/>
+      <c r="AH22" s="186"/>
+      <c r="AI22" s="186"/>
+      <c r="AJ22" s="186"/>
+      <c r="AK22" s="186"/>
+      <c r="AL22" s="186"/>
       <c r="AM22" s="103"/>
       <c r="AN22" s="88"/>
       <c r="AO22" s="88"/>
@@ -9144,22 +9147,22 @@
       <c r="W29" s="110"/>
       <c r="X29" s="110"/>
       <c r="Y29" s="110"/>
-      <c r="Z29" s="192" t="s">
+      <c r="Z29" s="191" t="s">
         <v>106</v>
       </c>
-      <c r="AA29" s="192"/>
-      <c r="AB29" s="192"/>
-      <c r="AC29" s="192"/>
-      <c r="AD29" s="192"/>
-      <c r="AE29" s="192"/>
-      <c r="AF29" s="192"/>
-      <c r="AG29" s="192"/>
-      <c r="AH29" s="192"/>
-      <c r="AI29" s="192"/>
-      <c r="AJ29" s="192"/>
-      <c r="AK29" s="192"/>
-      <c r="AL29" s="192"/>
-      <c r="AM29" s="192"/>
+      <c r="AA29" s="191"/>
+      <c r="AB29" s="191"/>
+      <c r="AC29" s="191"/>
+      <c r="AD29" s="191"/>
+      <c r="AE29" s="191"/>
+      <c r="AF29" s="191"/>
+      <c r="AG29" s="191"/>
+      <c r="AH29" s="191"/>
+      <c r="AI29" s="191"/>
+      <c r="AJ29" s="191"/>
+      <c r="AK29" s="191"/>
+      <c r="AL29" s="191"/>
+      <c r="AM29" s="191"/>
       <c r="AN29" s="102"/>
       <c r="AO29" s="102"/>
       <c r="AP29" s="102"/>
@@ -9403,19 +9406,19 @@
       <c r="B35" s="120"/>
       <c r="C35" s="102"/>
       <c r="D35" s="102"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="194"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="194"/>
-      <c r="L35" s="194"/>
-      <c r="M35" s="194"/>
-      <c r="N35" s="194"/>
-      <c r="O35" s="194"/>
-      <c r="P35" s="194"/>
-      <c r="Q35" s="194"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="187"/>
+      <c r="M35" s="187"/>
+      <c r="N35" s="187"/>
+      <c r="O35" s="187"/>
+      <c r="P35" s="187"/>
+      <c r="Q35" s="187"/>
       <c r="R35" s="123"/>
       <c r="S35" s="102"/>
       <c r="U35" s="120"/>
@@ -9448,19 +9451,19 @@
       <c r="B36" s="120"/>
       <c r="C36" s="102"/>
       <c r="D36" s="102"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="193"/>
-      <c r="K36" s="193"/>
-      <c r="L36" s="193"/>
-      <c r="M36" s="193"/>
-      <c r="N36" s="193"/>
-      <c r="O36" s="193"/>
-      <c r="P36" s="193"/>
-      <c r="Q36" s="193"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="188"/>
+      <c r="J36" s="188"/>
+      <c r="K36" s="188"/>
+      <c r="L36" s="188"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="188"/>
+      <c r="O36" s="188"/>
+      <c r="P36" s="188"/>
+      <c r="Q36" s="188"/>
       <c r="R36" s="123"/>
       <c r="S36" s="102"/>
       <c r="U36" s="120"/>
@@ -9783,19 +9786,19 @@
       <c r="B43" s="120"/>
       <c r="C43" s="102"/>
       <c r="D43" s="102"/>
-      <c r="E43" s="193"/>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
-      <c r="J43" s="194"/>
-      <c r="K43" s="194"/>
-      <c r="L43" s="194"/>
-      <c r="M43" s="194"/>
-      <c r="N43" s="194"/>
-      <c r="O43" s="194"/>
-      <c r="P43" s="194"/>
-      <c r="Q43" s="194"/>
+      <c r="E43" s="188"/>
+      <c r="F43" s="187"/>
+      <c r="G43" s="187"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
+      <c r="J43" s="187"/>
+      <c r="K43" s="187"/>
+      <c r="L43" s="187"/>
+      <c r="M43" s="187"/>
+      <c r="N43" s="187"/>
+      <c r="O43" s="187"/>
+      <c r="P43" s="187"/>
+      <c r="Q43" s="187"/>
       <c r="R43" s="123"/>
       <c r="S43" s="102"/>
       <c r="T43" s="88"/>
@@ -9831,19 +9834,19 @@
       <c r="B44" s="120"/>
       <c r="C44" s="133"/>
       <c r="D44" s="106"/>
-      <c r="E44" s="193"/>
-      <c r="F44" s="193"/>
-      <c r="G44" s="193"/>
-      <c r="H44" s="193"/>
-      <c r="I44" s="193"/>
-      <c r="J44" s="193"/>
-      <c r="K44" s="193"/>
-      <c r="L44" s="193"/>
-      <c r="M44" s="193"/>
-      <c r="N44" s="193"/>
-      <c r="O44" s="193"/>
-      <c r="P44" s="193"/>
-      <c r="Q44" s="193"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="188"/>
+      <c r="J44" s="188"/>
+      <c r="K44" s="188"/>
+      <c r="L44" s="188"/>
+      <c r="M44" s="188"/>
+      <c r="N44" s="188"/>
+      <c r="O44" s="188"/>
+      <c r="P44" s="188"/>
+      <c r="Q44" s="188"/>
       <c r="R44" s="123"/>
       <c r="S44" s="102"/>
       <c r="T44" s="102"/>
@@ -10028,19 +10031,19 @@
       <c r="B48" s="120"/>
       <c r="C48" s="102"/>
       <c r="D48" s="102"/>
-      <c r="E48" s="193"/>
-      <c r="F48" s="194"/>
-      <c r="G48" s="194"/>
-      <c r="H48" s="194"/>
-      <c r="I48" s="194"/>
-      <c r="J48" s="194"/>
-      <c r="K48" s="194"/>
-      <c r="L48" s="194"/>
-      <c r="M48" s="194"/>
-      <c r="N48" s="194"/>
-      <c r="O48" s="194"/>
-      <c r="P48" s="194"/>
-      <c r="Q48" s="194"/>
+      <c r="E48" s="188"/>
+      <c r="F48" s="187"/>
+      <c r="G48" s="187"/>
+      <c r="H48" s="187"/>
+      <c r="I48" s="187"/>
+      <c r="J48" s="187"/>
+      <c r="K48" s="187"/>
+      <c r="L48" s="187"/>
+      <c r="M48" s="187"/>
+      <c r="N48" s="187"/>
+      <c r="O48" s="187"/>
+      <c r="P48" s="187"/>
+      <c r="Q48" s="187"/>
       <c r="R48" s="123"/>
       <c r="S48" s="102"/>
       <c r="T48" s="102"/>
@@ -10075,42 +10078,42 @@
       <c r="B49" s="120"/>
       <c r="C49" s="102"/>
       <c r="D49" s="102"/>
-      <c r="E49" s="193"/>
-      <c r="F49" s="193"/>
-      <c r="G49" s="193"/>
-      <c r="H49" s="193"/>
-      <c r="I49" s="193"/>
-      <c r="J49" s="193"/>
-      <c r="K49" s="193"/>
-      <c r="L49" s="193"/>
-      <c r="M49" s="193"/>
-      <c r="N49" s="193"/>
-      <c r="O49" s="193"/>
-      <c r="P49" s="193"/>
-      <c r="Q49" s="193"/>
+      <c r="E49" s="188"/>
+      <c r="F49" s="188"/>
+      <c r="G49" s="188"/>
+      <c r="H49" s="188"/>
+      <c r="I49" s="188"/>
+      <c r="J49" s="188"/>
+      <c r="K49" s="188"/>
+      <c r="L49" s="188"/>
+      <c r="M49" s="188"/>
+      <c r="N49" s="188"/>
+      <c r="O49" s="188"/>
+      <c r="P49" s="188"/>
+      <c r="Q49" s="188"/>
       <c r="R49" s="123"/>
       <c r="S49" s="102"/>
       <c r="T49" s="102"/>
       <c r="U49" s="120"/>
       <c r="V49" s="136"/>
       <c r="W49" s="137"/>
-      <c r="X49" s="195" t="s">
+      <c r="X49" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="Y49" s="195"/>
-      <c r="Z49" s="195"/>
-      <c r="AA49" s="195"/>
-      <c r="AB49" s="195"/>
-      <c r="AC49" s="195"/>
-      <c r="AD49" s="195"/>
-      <c r="AE49" s="195"/>
-      <c r="AF49" s="195"/>
-      <c r="AG49" s="195"/>
-      <c r="AH49" s="195"/>
-      <c r="AI49" s="195"/>
-      <c r="AJ49" s="195"/>
-      <c r="AK49" s="195"/>
-      <c r="AL49" s="195"/>
+      <c r="Y49" s="189"/>
+      <c r="Z49" s="189"/>
+      <c r="AA49" s="189"/>
+      <c r="AB49" s="189"/>
+      <c r="AC49" s="189"/>
+      <c r="AD49" s="189"/>
+      <c r="AE49" s="189"/>
+      <c r="AF49" s="189"/>
+      <c r="AG49" s="189"/>
+      <c r="AH49" s="189"/>
+      <c r="AI49" s="189"/>
+      <c r="AJ49" s="189"/>
+      <c r="AK49" s="189"/>
+      <c r="AL49" s="189"/>
       <c r="AM49" s="123"/>
       <c r="AN49" s="102"/>
       <c r="AO49" s="102"/>
@@ -10143,21 +10146,21 @@
       <c r="U50" s="140"/>
       <c r="V50" s="141"/>
       <c r="W50" s="142"/>
-      <c r="X50" s="195"/>
-      <c r="Y50" s="195"/>
-      <c r="Z50" s="195"/>
-      <c r="AA50" s="195"/>
-      <c r="AB50" s="195"/>
-      <c r="AC50" s="195"/>
-      <c r="AD50" s="195"/>
-      <c r="AE50" s="195"/>
-      <c r="AF50" s="195"/>
-      <c r="AG50" s="195"/>
-      <c r="AH50" s="195"/>
-      <c r="AI50" s="195"/>
-      <c r="AJ50" s="195"/>
-      <c r="AK50" s="195"/>
-      <c r="AL50" s="195"/>
+      <c r="X50" s="189"/>
+      <c r="Y50" s="189"/>
+      <c r="Z50" s="189"/>
+      <c r="AA50" s="189"/>
+      <c r="AB50" s="189"/>
+      <c r="AC50" s="189"/>
+      <c r="AD50" s="189"/>
+      <c r="AE50" s="189"/>
+      <c r="AF50" s="189"/>
+      <c r="AG50" s="189"/>
+      <c r="AH50" s="189"/>
+      <c r="AI50" s="189"/>
+      <c r="AJ50" s="189"/>
+      <c r="AK50" s="189"/>
+      <c r="AL50" s="189"/>
       <c r="AM50" s="103"/>
       <c r="AN50" s="102"/>
       <c r="AO50" s="102"/>
@@ -10445,32 +10448,32 @@
     </row>
     <row r="57" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="123"/>
-      <c r="B57" s="196" t="s">
+      <c r="B57" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="196"/>
-      <c r="D57" s="196"/>
-      <c r="E57" s="196"/>
-      <c r="F57" s="196"/>
-      <c r="G57" s="196"/>
-      <c r="H57" s="196"/>
-      <c r="I57" s="196"/>
-      <c r="J57" s="196"/>
-      <c r="K57" s="196"/>
-      <c r="L57" s="196"/>
-      <c r="M57" s="196"/>
-      <c r="N57" s="196"/>
-      <c r="O57" s="196"/>
-      <c r="P57" s="196"/>
-      <c r="Q57" s="196"/>
-      <c r="R57" s="196"/>
-      <c r="S57" s="196"/>
-      <c r="T57" s="196"/>
-      <c r="U57" s="196"/>
-      <c r="V57" s="196"/>
-      <c r="W57" s="196"/>
-      <c r="X57" s="196"/>
-      <c r="Y57" s="196"/>
+      <c r="C57" s="190"/>
+      <c r="D57" s="190"/>
+      <c r="E57" s="190"/>
+      <c r="F57" s="190"/>
+      <c r="G57" s="190"/>
+      <c r="H57" s="190"/>
+      <c r="I57" s="190"/>
+      <c r="J57" s="190"/>
+      <c r="K57" s="190"/>
+      <c r="L57" s="190"/>
+      <c r="M57" s="190"/>
+      <c r="N57" s="190"/>
+      <c r="O57" s="190"/>
+      <c r="P57" s="190"/>
+      <c r="Q57" s="190"/>
+      <c r="R57" s="190"/>
+      <c r="S57" s="190"/>
+      <c r="T57" s="190"/>
+      <c r="U57" s="190"/>
+      <c r="V57" s="190"/>
+      <c r="W57" s="190"/>
+      <c r="X57" s="190"/>
+      <c r="Y57" s="190"/>
       <c r="Z57" s="102" t="s">
         <v>127</v>
       </c>
@@ -10543,46 +10546,46 @@
     </row>
     <row r="59" spans="1:47" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="123"/>
-      <c r="B59" s="197" t="s">
+      <c r="B59" s="183" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="197"/>
-      <c r="D59" s="197"/>
-      <c r="E59" s="197"/>
-      <c r="F59" s="197"/>
-      <c r="G59" s="197"/>
-      <c r="H59" s="197"/>
-      <c r="I59" s="197"/>
-      <c r="J59" s="197"/>
-      <c r="K59" s="197"/>
-      <c r="L59" s="197"/>
-      <c r="M59" s="197"/>
-      <c r="N59" s="197"/>
-      <c r="O59" s="197"/>
-      <c r="P59" s="197"/>
-      <c r="Q59" s="197"/>
-      <c r="R59" s="197"/>
-      <c r="S59" s="197"/>
-      <c r="T59" s="197"/>
-      <c r="U59" s="197"/>
-      <c r="V59" s="197"/>
-      <c r="W59" s="197"/>
-      <c r="X59" s="197"/>
-      <c r="Y59" s="197"/>
-      <c r="Z59" s="197"/>
-      <c r="AA59" s="197"/>
-      <c r="AB59" s="197"/>
-      <c r="AC59" s="197"/>
-      <c r="AD59" s="197"/>
-      <c r="AE59" s="197"/>
-      <c r="AF59" s="197"/>
-      <c r="AG59" s="197"/>
-      <c r="AH59" s="197"/>
-      <c r="AI59" s="197"/>
-      <c r="AJ59" s="197"/>
-      <c r="AK59" s="197"/>
-      <c r="AL59" s="197"/>
-      <c r="AM59" s="197"/>
+      <c r="C59" s="183"/>
+      <c r="D59" s="183"/>
+      <c r="E59" s="183"/>
+      <c r="F59" s="183"/>
+      <c r="G59" s="183"/>
+      <c r="H59" s="183"/>
+      <c r="I59" s="183"/>
+      <c r="J59" s="183"/>
+      <c r="K59" s="183"/>
+      <c r="L59" s="183"/>
+      <c r="M59" s="183"/>
+      <c r="N59" s="183"/>
+      <c r="O59" s="183"/>
+      <c r="P59" s="183"/>
+      <c r="Q59" s="183"/>
+      <c r="R59" s="183"/>
+      <c r="S59" s="183"/>
+      <c r="T59" s="183"/>
+      <c r="U59" s="183"/>
+      <c r="V59" s="183"/>
+      <c r="W59" s="183"/>
+      <c r="X59" s="183"/>
+      <c r="Y59" s="183"/>
+      <c r="Z59" s="183"/>
+      <c r="AA59" s="183"/>
+      <c r="AB59" s="183"/>
+      <c r="AC59" s="183"/>
+      <c r="AD59" s="183"/>
+      <c r="AE59" s="183"/>
+      <c r="AF59" s="183"/>
+      <c r="AG59" s="183"/>
+      <c r="AH59" s="183"/>
+      <c r="AI59" s="183"/>
+      <c r="AJ59" s="183"/>
+      <c r="AK59" s="183"/>
+      <c r="AL59" s="183"/>
+      <c r="AM59" s="183"/>
       <c r="AN59" s="157"/>
       <c r="AO59" s="88"/>
       <c r="AP59" s="88"/>
@@ -10637,37 +10640,37 @@
     </row>
     <row r="61" spans="1:47" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="123"/>
-      <c r="B61" s="198" t="s">
+      <c r="B61" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="198"/>
-      <c r="D61" s="198"/>
-      <c r="E61" s="198"/>
-      <c r="F61" s="198"/>
-      <c r="G61" s="198"/>
-      <c r="H61" s="198"/>
-      <c r="I61" s="198"/>
-      <c r="J61" s="198"/>
-      <c r="K61" s="198"/>
-      <c r="L61" s="198"/>
-      <c r="M61" s="198"/>
-      <c r="N61" s="198"/>
-      <c r="O61" s="198"/>
-      <c r="P61" s="198"/>
-      <c r="Q61" s="198"/>
-      <c r="R61" s="198"/>
-      <c r="S61" s="198"/>
-      <c r="T61" s="198"/>
-      <c r="U61" s="198"/>
-      <c r="V61" s="198"/>
-      <c r="W61" s="198"/>
-      <c r="X61" s="198"/>
-      <c r="Y61" s="198"/>
-      <c r="Z61" s="198"/>
-      <c r="AA61" s="198"/>
-      <c r="AB61" s="198"/>
-      <c r="AC61" s="198"/>
-      <c r="AD61" s="198"/>
+      <c r="C61" s="184"/>
+      <c r="D61" s="184"/>
+      <c r="E61" s="184"/>
+      <c r="F61" s="184"/>
+      <c r="G61" s="184"/>
+      <c r="H61" s="184"/>
+      <c r="I61" s="184"/>
+      <c r="J61" s="184"/>
+      <c r="K61" s="184"/>
+      <c r="L61" s="184"/>
+      <c r="M61" s="184"/>
+      <c r="N61" s="184"/>
+      <c r="O61" s="184"/>
+      <c r="P61" s="184"/>
+      <c r="Q61" s="184"/>
+      <c r="R61" s="184"/>
+      <c r="S61" s="184"/>
+      <c r="T61" s="184"/>
+      <c r="U61" s="184"/>
+      <c r="V61" s="184"/>
+      <c r="W61" s="184"/>
+      <c r="X61" s="184"/>
+      <c r="Y61" s="184"/>
+      <c r="Z61" s="184"/>
+      <c r="AA61" s="184"/>
+      <c r="AB61" s="184"/>
+      <c r="AC61" s="184"/>
+      <c r="AD61" s="184"/>
       <c r="AE61" s="102"/>
       <c r="AF61" s="102"/>
       <c r="AG61" s="102"/>
@@ -10685,35 +10688,35 @@
     </row>
     <row r="62" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="123"/>
-      <c r="B62" s="198"/>
-      <c r="C62" s="198"/>
-      <c r="D62" s="198"/>
-      <c r="E62" s="198"/>
-      <c r="F62" s="198"/>
-      <c r="G62" s="198"/>
-      <c r="H62" s="198"/>
-      <c r="I62" s="198"/>
-      <c r="J62" s="198"/>
-      <c r="K62" s="198"/>
-      <c r="L62" s="198"/>
-      <c r="M62" s="198"/>
-      <c r="N62" s="198"/>
-      <c r="O62" s="198"/>
-      <c r="P62" s="198"/>
-      <c r="Q62" s="198"/>
-      <c r="R62" s="198"/>
-      <c r="S62" s="198"/>
-      <c r="T62" s="198"/>
-      <c r="U62" s="198"/>
-      <c r="V62" s="198"/>
-      <c r="W62" s="198"/>
-      <c r="X62" s="198"/>
-      <c r="Y62" s="198"/>
-      <c r="Z62" s="198"/>
-      <c r="AA62" s="198"/>
-      <c r="AB62" s="198"/>
-      <c r="AC62" s="198"/>
-      <c r="AD62" s="198"/>
+      <c r="B62" s="184"/>
+      <c r="C62" s="184"/>
+      <c r="D62" s="184"/>
+      <c r="E62" s="184"/>
+      <c r="F62" s="184"/>
+      <c r="G62" s="184"/>
+      <c r="H62" s="184"/>
+      <c r="I62" s="184"/>
+      <c r="J62" s="184"/>
+      <c r="K62" s="184"/>
+      <c r="L62" s="184"/>
+      <c r="M62" s="184"/>
+      <c r="N62" s="184"/>
+      <c r="O62" s="184"/>
+      <c r="P62" s="184"/>
+      <c r="Q62" s="184"/>
+      <c r="R62" s="184"/>
+      <c r="S62" s="184"/>
+      <c r="T62" s="184"/>
+      <c r="U62" s="184"/>
+      <c r="V62" s="184"/>
+      <c r="W62" s="184"/>
+      <c r="X62" s="184"/>
+      <c r="Y62" s="184"/>
+      <c r="Z62" s="184"/>
+      <c r="AA62" s="184"/>
+      <c r="AB62" s="184"/>
+      <c r="AC62" s="184"/>
+      <c r="AD62" s="184"/>
       <c r="AF62" s="158" t="s">
         <v>131</v>
       </c>
@@ -10949,43 +10952,43 @@
     </row>
     <row r="67" spans="1:72" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="88"/>
-      <c r="B67" s="189"/>
-      <c r="C67" s="189"/>
-      <c r="D67" s="189"/>
-      <c r="E67" s="189"/>
-      <c r="F67" s="189"/>
-      <c r="G67" s="189"/>
-      <c r="H67" s="189"/>
-      <c r="I67" s="189"/>
-      <c r="J67" s="189"/>
-      <c r="K67" s="189"/>
-      <c r="L67" s="189"/>
-      <c r="M67" s="189"/>
-      <c r="N67" s="189"/>
-      <c r="O67" s="189"/>
-      <c r="P67" s="189"/>
-      <c r="Q67" s="189"/>
-      <c r="R67" s="189"/>
-      <c r="S67" s="189"/>
-      <c r="T67" s="189"/>
-      <c r="U67" s="189"/>
-      <c r="V67" s="189"/>
-      <c r="W67" s="189"/>
-      <c r="X67" s="189"/>
-      <c r="Y67" s="189"/>
-      <c r="Z67" s="189"/>
-      <c r="AA67" s="189"/>
-      <c r="AB67" s="189"/>
-      <c r="AC67" s="189"/>
-      <c r="AD67" s="189"/>
-      <c r="AE67" s="188"/>
-      <c r="AF67" s="188"/>
-      <c r="AG67" s="188"/>
-      <c r="AH67" s="188"/>
-      <c r="AI67" s="188"/>
-      <c r="AJ67" s="188"/>
-      <c r="AK67" s="188"/>
-      <c r="AL67" s="188"/>
+      <c r="B67" s="185"/>
+      <c r="C67" s="185"/>
+      <c r="D67" s="185"/>
+      <c r="E67" s="185"/>
+      <c r="F67" s="185"/>
+      <c r="G67" s="185"/>
+      <c r="H67" s="185"/>
+      <c r="I67" s="185"/>
+      <c r="J67" s="185"/>
+      <c r="K67" s="185"/>
+      <c r="L67" s="185"/>
+      <c r="M67" s="185"/>
+      <c r="N67" s="185"/>
+      <c r="O67" s="185"/>
+      <c r="P67" s="185"/>
+      <c r="Q67" s="185"/>
+      <c r="R67" s="185"/>
+      <c r="S67" s="185"/>
+      <c r="T67" s="185"/>
+      <c r="U67" s="185"/>
+      <c r="V67" s="185"/>
+      <c r="W67" s="185"/>
+      <c r="X67" s="185"/>
+      <c r="Y67" s="185"/>
+      <c r="Z67" s="185"/>
+      <c r="AA67" s="185"/>
+      <c r="AB67" s="185"/>
+      <c r="AC67" s="185"/>
+      <c r="AD67" s="185"/>
+      <c r="AE67" s="186"/>
+      <c r="AF67" s="186"/>
+      <c r="AG67" s="186"/>
+      <c r="AH67" s="186"/>
+      <c r="AI67" s="186"/>
+      <c r="AJ67" s="186"/>
+      <c r="AK67" s="186"/>
+      <c r="AL67" s="186"/>
       <c r="AM67" s="103"/>
       <c r="AN67" s="88"/>
       <c r="AO67" s="88"/>
@@ -11430,16 +11433,38 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="58">
-    <mergeCell ref="B59:AM59"/>
-    <mergeCell ref="B61:AD62"/>
-    <mergeCell ref="B67:AD67"/>
-    <mergeCell ref="AE67:AL67"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="X49:AL50"/>
-    <mergeCell ref="B57:Y57"/>
+    <mergeCell ref="B22:AL22"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="AD2:AM2"/>
+    <mergeCell ref="B4:AL4"/>
+    <mergeCell ref="B5:AL5"/>
+    <mergeCell ref="B8:AA8"/>
+    <mergeCell ref="B10:AL10"/>
+    <mergeCell ref="B12:AA12"/>
+    <mergeCell ref="AB12:AM12"/>
+    <mergeCell ref="B14:AL14"/>
+    <mergeCell ref="B20:AA20"/>
+    <mergeCell ref="Z29:AM29"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
     <mergeCell ref="Q43:Q44"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="F48:F49"/>
@@ -11456,38 +11481,16 @@
     <mergeCell ref="N43:N44"/>
     <mergeCell ref="O43:O44"/>
     <mergeCell ref="P43:P44"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="Z29:AM29"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="B10:AL10"/>
-    <mergeCell ref="B12:AA12"/>
-    <mergeCell ref="AB12:AM12"/>
-    <mergeCell ref="B14:AL14"/>
-    <mergeCell ref="B20:AA20"/>
-    <mergeCell ref="B22:AL22"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="AD2:AM2"/>
-    <mergeCell ref="B4:AL4"/>
-    <mergeCell ref="B5:AL5"/>
-    <mergeCell ref="B8:AA8"/>
+    <mergeCell ref="B59:AM59"/>
+    <mergeCell ref="B61:AD62"/>
+    <mergeCell ref="B67:AD67"/>
+    <mergeCell ref="AE67:AL67"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="X49:AL50"/>
+    <mergeCell ref="B57:Y57"/>
   </mergeCells>
   <conditionalFormatting sqref="AD2:AM2">
     <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
@@ -11525,15 +11528,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ЕИК или ЕГН за заявителя" sqref="AD8:AM8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ЕИК или ЕГН за заявителя" sqref="AD8:AM8" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Избор на град за получаване на удостоверение и офис_x000a_" sqref="AD2:AM2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Избор на град за получаване на удостоверение и офис_x000a_" sqref="AD2:AM2" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Телефонен номер на заявител" sqref="AB12:AM12">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Телефонен номер на заявител" sqref="AB12:AM12" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
